--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2814296.063337249</v>
+        <v>2811752.253830167</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>219.4450108596164</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>21.31870353900262</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>45.86835121198033</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>28.337088680934</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -789,16 +789,16 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>163.51769188092</v>
+        <v>16.39467431752565</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>7.155295256393378</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.3170492634406</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,16 +981,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>44.27576974090323</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>27.97091099520375</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>162.1674712215234</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>224.0093648097349</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824949</v>
+        <v>262.2495876881387</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>91.06264775162299</v>
+        <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115226</v>
+        <v>18.47335059662534</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>32.65393872830956</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>120.3787038611877</v>
       </c>
     </row>
     <row r="11">
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881278</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428169</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>12.74007641194337</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>21.63824106824919</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569544</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>26.05480806223588</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072261</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2716,10 +2716,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>141.8888082957382</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>126.3436347319666</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187854</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,10 +3241,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>19.17715139986178</v>
       </c>
       <c r="V34" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>19.88691958258267</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>41.01175877060098</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4028,7 +4028,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>161.3555494301526</v>
+        <v>193.9507379795604</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1054.855520006025</v>
+        <v>166.0479880037681</v>
       </c>
       <c r="C2" t="n">
-        <v>833.1938928750989</v>
+        <v>166.0479880037681</v>
       </c>
       <c r="D2" t="n">
-        <v>566.8162363079209</v>
+        <v>166.0479880037681</v>
       </c>
       <c r="E2" t="n">
-        <v>300.4385797407429</v>
+        <v>166.0479880037681</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>159.1024872545647</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917602</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052543</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
         <v>888.5149683358416</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>432.4256445709462</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>166.0479880037681</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>166.0479880037681</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>166.0479880037681</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.855520006025</v>
+        <v>166.0479880037681</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>678.8798842210026</v>
+        <v>167.9129401811206</v>
       </c>
       <c r="C3" t="n">
-        <v>504.4268549398756</v>
+        <v>167.9129401811206</v>
       </c>
       <c r="D3" t="n">
-        <v>355.4924452786244</v>
+        <v>167.9129401811206</v>
       </c>
       <c r="E3" t="n">
-        <v>196.2549902731689</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="F3" t="n">
-        <v>49.72043230005383</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G3" t="n">
-        <v>49.72043230005383</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>141.1068094710485</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>287.8512331313452</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>478.451922227869</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>904.2569522304912</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>1021.314552263895</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4437,22 +4437,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>858.0464416374626</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>629.9105956742761</v>
       </c>
       <c r="V3" t="n">
-        <v>1054.855520006025</v>
+        <v>629.9105956742761</v>
       </c>
       <c r="W3" t="n">
-        <v>1054.855520006025</v>
+        <v>375.6732389460745</v>
       </c>
       <c r="X3" t="n">
-        <v>1054.855520006025</v>
+        <v>375.6732389460745</v>
       </c>
       <c r="Y3" t="n">
-        <v>847.0952212410707</v>
+        <v>167.9129401811206</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.09711040012049</v>
+        <v>189.666471045117</v>
       </c>
       <c r="C4" t="n">
-        <v>21.09711040012049</v>
+        <v>189.666471045117</v>
       </c>
       <c r="D4" t="n">
-        <v>21.09711040012049</v>
+        <v>189.666471045117</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012049</v>
+        <v>189.666471045117</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
         <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407079</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165359</v>
+        <v>926.0629918407079</v>
       </c>
       <c r="T4" t="n">
-        <v>622.5994491745502</v>
+        <v>700.5939555987222</v>
       </c>
       <c r="U4" t="n">
-        <v>457.4300634362471</v>
+        <v>684.0336785103125</v>
       </c>
       <c r="V4" t="n">
-        <v>202.7455752303602</v>
+        <v>684.0336785103125</v>
       </c>
       <c r="W4" t="n">
-        <v>202.7455752303602</v>
+        <v>417.6560219431344</v>
       </c>
       <c r="X4" t="n">
-        <v>202.7455752303602</v>
+        <v>189.666471045117</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.7455752303602</v>
+        <v>189.666471045117</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.00642392276842</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00642392276842</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4595,22 +4595,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="V5" t="n">
-        <v>840.1393936243022</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="W5" t="n">
-        <v>573.7617370571243</v>
+        <v>574.0438072739748</v>
       </c>
       <c r="X5" t="n">
-        <v>307.3840804899464</v>
+        <v>574.0438072739748</v>
       </c>
       <c r="Y5" t="n">
-        <v>41.00642392276842</v>
+        <v>574.0438072739748</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.09711040012049</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="C6" t="n">
-        <v>21.09711040012049</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="D6" t="n">
-        <v>21.09711040012049</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012049</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4671,25 +4671,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>691.0742594480922</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>462.9384134849057</v>
       </c>
       <c r="V6" t="n">
-        <v>801.367527981072</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="W6" t="n">
-        <v>547.1301712528705</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="X6" t="n">
-        <v>339.2786710473376</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="Y6" t="n">
-        <v>131.5183722823837</v>
+        <v>418.2154137466196</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>171.2137498124562</v>
+        <v>189.666471045117</v>
       </c>
       <c r="C7" t="n">
-        <v>171.2137498124562</v>
+        <v>189.666471045117</v>
       </c>
       <c r="D7" t="n">
-        <v>21.09711040012049</v>
+        <v>189.666471045117</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>189.666471045117</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
@@ -4732,13 +4732,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T7" t="n">
-        <v>829.3864837640389</v>
+        <v>700.593955598722</v>
       </c>
       <c r="U7" t="n">
-        <v>829.3864837640389</v>
+        <v>700.593955598722</v>
       </c>
       <c r="V7" t="n">
-        <v>665.5809572776516</v>
+        <v>445.9094673928352</v>
       </c>
       <c r="W7" t="n">
-        <v>399.2033007104736</v>
+        <v>445.9094673928352</v>
       </c>
       <c r="X7" t="n">
-        <v>171.2137498124562</v>
+        <v>217.9199164948178</v>
       </c>
       <c r="Y7" t="n">
-        <v>171.2137498124562</v>
+        <v>217.9199164948178</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1217.916929169387</v>
+        <v>985.3952443693138</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.916929169387</v>
+        <v>985.3952443693138</v>
       </c>
       <c r="D8" t="n">
-        <v>859.6512305626363</v>
+        <v>627.1295457625633</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8629779643921</v>
+        <v>627.1295457625633</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478461</v>
+        <v>620.1840450133599</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685583</v>
+        <v>355.2854715909976</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685583</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685583</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467175</v>
+        <v>187.3702251467174</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607432</v>
+        <v>442.1757437607429</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045947</v>
+        <v>795.1862829045936</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.64796299523</v>
+        <v>1219.647962995228</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209588</v>
+        <v>1655.591685209586</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940601</v>
+        <v>2053.905718940598</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550204</v>
+        <v>2359.356530550201</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661172</v>
+        <v>2540.564622661167</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342792</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342792</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342792</v>
+        <v>2351.81067643906</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342792</v>
+        <v>2098.229497964629</v>
       </c>
       <c r="V8" t="n">
-        <v>2560.562760342792</v>
+        <v>2098.229497964629</v>
       </c>
       <c r="W8" t="n">
-        <v>2207.794105072677</v>
+        <v>1745.460842694515</v>
       </c>
       <c r="X8" t="n">
-        <v>1834.328346811597</v>
+        <v>1371.995084433436</v>
       </c>
       <c r="Y8" t="n">
-        <v>1444.189014835786</v>
+        <v>1371.995084433436</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010864</v>
+        <v>929.5097208010814</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199594</v>
+        <v>755.0566915199544</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818587081</v>
+        <v>606.1222818587031</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532526</v>
+        <v>446.8848268532476</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801376</v>
+        <v>300.3502688801326</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763258</v>
+        <v>163.6480708763208</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993893</v>
+        <v>69.87120530445709</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685583</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637192</v>
+        <v>113.488757963719</v>
       </c>
       <c r="K9" t="n">
-        <v>506.458198038139</v>
+        <v>559.9063389572713</v>
       </c>
       <c r="L9" t="n">
-        <v>800.994181471621</v>
+        <v>1116.272322425155</v>
       </c>
       <c r="M9" t="n">
-        <v>1164.060649945923</v>
+        <v>1479.338790899457</v>
       </c>
       <c r="N9" t="n">
-        <v>1551.145052418493</v>
+        <v>1866.423193372027</v>
       </c>
       <c r="O9" t="n">
-        <v>1883.031862405883</v>
+        <v>2198.310003359416</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789046</v>
+        <v>2445.345361789041</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342792</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342792</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251707</v>
+        <v>2424.826280251702</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685356</v>
+        <v>2230.816477685351</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751585</v>
+        <v>2002.72632175158</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519843</v>
+        <v>1767.574213519838</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791641</v>
+        <v>1513.336856791636</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586108</v>
+        <v>1305.485356586103</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821154</v>
+        <v>1097.725057821149</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>715.9213805686175</v>
+        <v>220.1474381347626</v>
       </c>
       <c r="C10" t="n">
-        <v>546.9851976407106</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="D10" t="n">
-        <v>514.0014211474686</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="E10" t="n">
-        <v>366.0883275650755</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="F10" t="n">
-        <v>219.1983800671651</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685583</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685583</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685583</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380183</v>
+        <v>76.63468308380166</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676574</v>
+        <v>248.2500215676571</v>
       </c>
       <c r="L10" t="n">
-        <v>523.385004336893</v>
+        <v>523.3850043368925</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904049</v>
+        <v>823.8653899904043</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101614</v>
+        <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931093</v>
+        <v>1382.582027931092</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616502</v>
+        <v>1581.490387616501</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477365</v>
+        <v>1533.156055412622</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477365</v>
+        <v>1336.515802634456</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477365</v>
+        <v>1113.534501108861</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477365</v>
+        <v>824.4161276035029</v>
       </c>
       <c r="V10" t="n">
-        <v>1635.769145477365</v>
+        <v>569.731639397616</v>
       </c>
       <c r="W10" t="n">
-        <v>1346.351975440405</v>
+        <v>569.731639397616</v>
       </c>
       <c r="X10" t="n">
-        <v>1118.362424542387</v>
+        <v>341.7420884995987</v>
       </c>
       <c r="Y10" t="n">
-        <v>897.5698453988572</v>
+        <v>220.1474381347626</v>
       </c>
     </row>
     <row r="11">
@@ -5033,25 +5033,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5066,22 +5066,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798836045</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C16" t="n">
-        <v>565.7099969556976</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>415.5933575433619</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>415.5933575433619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>415.5933575433619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>248.3972582582418</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>106.6854271004399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038373</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832666</v>
+        <v>2425.106274420413</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.06254548757</v>
+        <v>2242.251440075317</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510511</v>
+        <v>2022.649975098258</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854709</v>
+        <v>1733.574748442456</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648822</v>
+        <v>1478.890260236569</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611862</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138443</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138443</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="17">
@@ -5507,34 +5507,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>739.5354516872168</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,22 +5823,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718727</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5890,31 +5890,31 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5969,70 +5969,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,43 +6233,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832228</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C28" t="n">
-        <v>634.9279362553159</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1434.29471405501</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.305163156993</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134625</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="29">
@@ -6461,19 +6461,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,16 +6494,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6786,19 +6786,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7138,7 +7138,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7175,7 +7175,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7491,25 +7491,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>135.2426820081749</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>45.78351343583213</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>51.53815565544051</v>
       </c>
       <c r="O3" t="n">
-        <v>92.05878169167806</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.262887399594376</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8152,7 +8152,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>135.0065633140413</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,10 +8532,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>210.4772158821415</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>264.4747475094974</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348489</v>
+        <v>20.98618304348497</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>-1.030694428354666e-13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.2291039219422</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>68.52575990662217</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.73700564187249</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>144.6341900408528</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>20.09032791460257</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,10 +25129,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>267.0073229893824</v>
       </c>
       <c r="V34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>266.2975548066615</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>99.28295407562291</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>57.22910392194223</v>
+        <v>24.63391537253443</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>755759.7641884404</v>
+        <v>755759.7641884405</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755759.7641884406</v>
+        <v>755759.7641884404</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755759.7641884404</v>
+        <v>755759.7641884405</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>755759.7641884406</v>
+        <v>755759.7641884404</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>755759.7641884404</v>
+        <v>755759.7641884406</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755759.7641884404</v>
+        <v>755759.7641884405</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>755759.7641884404</v>
+        <v>755759.7641884405</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>755759.7641884404</v>
+        <v>755759.7641884405</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380333</v>
+      </c>
+      <c r="C2" t="n">
         <v>677359.4601380335</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380333</v>
-      </c>
       <c r="D2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="E2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442554</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="H2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="J2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="K2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="N2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="L2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442546</v>
-      </c>
       <c r="O2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.007658081</v>
+        <v>390680.0076580798</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606913</v>
+        <v>507909.2320606923</v>
       </c>
       <c r="F3" t="n">
         <v>2.574418839027077e-11</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911393</v>
+        <v>68999.15441911413</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101818</v>
+        <v>95270.23779101788</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954685</v>
+        <v>132717.9756954688</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>249437.9663307044</v>
       </c>
       <c r="C4" t="n">
-        <v>249437.9663307045</v>
+        <v>249437.9663307044</v>
       </c>
       <c r="D4" t="n">
-        <v>138058.0537608925</v>
+        <v>138058.0537608929</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768934</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321769001</v>
+        <v>9947.144321768923</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768919</v>
+        <v>9947.144321768939</v>
       </c>
       <c r="H4" t="n">
+        <v>9947.144321768959</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9947.144321768921</v>
+      </c>
+      <c r="J4" t="n">
         <v>9947.144321768908</v>
       </c>
-      <c r="I4" t="n">
-        <v>9947.144321768868</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>9947.144321768923</v>
+      </c>
+      <c r="L4" t="n">
         <v>9947.144321768897</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9947.144321768857</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9947.14432176895</v>
       </c>
       <c r="M4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768908</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768901</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321768883</v>
+        <v>9947.14432176891</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567913</v>
+        <v>92902.86757567903</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-315214.2899881302</v>
+        <v>-315214.2899881305</v>
       </c>
       <c r="C6" t="n">
-        <v>364873.6906030626</v>
+        <v>364873.6906030629</v>
       </c>
       <c r="D6" t="n">
-        <v>55718.53114338087</v>
+        <v>55718.53114338199</v>
       </c>
       <c r="E6" t="n">
-        <v>46917.03853788745</v>
+        <v>46882.30061245084</v>
       </c>
       <c r="F6" t="n">
-        <v>554826.2705985793</v>
+        <v>554791.5326731432</v>
       </c>
       <c r="G6" t="n">
-        <v>554826.2705985787</v>
+        <v>554791.5326731435</v>
       </c>
       <c r="H6" t="n">
-        <v>554826.2705985788</v>
+        <v>554791.5326731431</v>
       </c>
       <c r="I6" t="n">
-        <v>554826.2705985787</v>
+        <v>554791.5326731434</v>
       </c>
       <c r="J6" t="n">
-        <v>485827.1161794651</v>
+        <v>485792.3782540291</v>
       </c>
       <c r="K6" t="n">
-        <v>554826.2705985788</v>
+        <v>554791.5326731433</v>
       </c>
       <c r="L6" t="n">
-        <v>459556.0328075606</v>
+        <v>459521.2948821253</v>
       </c>
       <c r="M6" t="n">
-        <v>422108.2949031102</v>
+        <v>422073.5569776745</v>
       </c>
       <c r="N6" t="n">
-        <v>554826.2705985786</v>
+        <v>554791.5326731432</v>
       </c>
       <c r="O6" t="n">
-        <v>554826.2705985788</v>
+        <v>554791.5326731434</v>
       </c>
       <c r="P6" t="n">
-        <v>554826.270598579</v>
+        <v>554791.5326731435</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>3.218023548783847e-14</v>
       </c>
-      <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
-      </c>
       <c r="G2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>3.220235325069479e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,10 +26713,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.223655907778798e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.223655907778798e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627844</v>
+        <v>933.7024595627837</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856979</v>
+        <v>640.1406900856966</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,7 +26808,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>3.218023548783847e-14</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.441679456562646e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933061</v>
+        <v>319.6474457933053</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788894</v>
+        <v>434.27304077889</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841917</v>
+        <v>376.4268100841904</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139503</v>
+        <v>532.5675980139517</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015057</v>
+        <v>263.7138800015065</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841915</v>
+        <v>376.4268100841904</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139505</v>
+        <v>532.5675980139517</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>3.218023548783847e-14</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841917</v>
+        <v>376.4268100841904</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139503</v>
+        <v>532.5675980139517</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>145.8278809113911</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>391.5154711067074</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862865</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>111.7767292434206</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>71.14223159027576</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>122.7409386217575</v>
+        <v>269.8639561851518</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508475</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>375.5785464070872</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776178</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27667,22 +27667,22 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>115.1832933522298</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>85.52708871590681</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.21613438642676</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,19 +27701,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>188.524817408522</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>151.8610691867335</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
@@ -27795,7 +27795,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27831,10 +27831,10 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>89.97017210230459</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>158.7244768537457</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>149.2995721001108</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465011</v>
+        <v>65.76608425465022</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348405</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27947,10 +27947,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.776449164522035</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.776449164526973</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>115.9615342899028</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
         <v>147.2573199590395</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640952</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>98.20594949090709</v>
       </c>
     </row>
     <row r="11">
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.71678812803845e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>2.992566868638747e-12</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>8.044115477849436e-13</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29509,13 +29509,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-5.487218467042014e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.181774678116198e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885562</v>
+        <v>3.75357772688556</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546678</v>
+        <v>38.44132789546675</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157558</v>
+        <v>144.7098053157557</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972538</v>
+        <v>318.5802175972536</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763198</v>
+        <v>477.4691627763194</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354939</v>
+        <v>592.3427171354934</v>
       </c>
       <c r="M8" t="n">
-        <v>659.095405035995</v>
+        <v>659.0954050359945</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525087</v>
+        <v>669.7602577525082</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307903</v>
+        <v>632.4356192307898</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983029</v>
+        <v>539.7691690983025</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542136</v>
+        <v>405.3441667542133</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864754</v>
+        <v>235.7856768864752</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140484</v>
+        <v>85.53465245140478</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944156</v>
+        <v>16.43128649944155</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508449</v>
+        <v>0.3002862181508447</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436932</v>
+        <v>2.008341139436931</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035143</v>
+        <v>19.39634732035142</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026282</v>
+        <v>69.14683309026276</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079429</v>
+        <v>189.7441951079427</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502173</v>
+        <v>324.3030514502171</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571287</v>
+        <v>436.0654741571284</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617174</v>
+        <v>508.867840461717</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152222</v>
+        <v>522.3360580152219</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519091</v>
+        <v>477.8354464519088</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947595</v>
+        <v>383.5050724947592</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463706</v>
+        <v>256.3629847463704</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204791</v>
+        <v>124.693320920479</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366405</v>
+        <v>37.30405581366402</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133949</v>
+        <v>8.095024154133943</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419035</v>
+        <v>0.1321277065419034</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752562</v>
+        <v>1.683725746752561</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840006</v>
+        <v>14.96985254840005</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415887</v>
+        <v>50.63422518415884</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954061</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772522</v>
+        <v>195.618318577252</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490127</v>
+        <v>250.3240987490126</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023129</v>
+        <v>263.9316641023127</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462354</v>
+        <v>257.6559590462352</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046258</v>
+        <v>237.9869810046256</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708734</v>
+        <v>203.6389757708733</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939804</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307427</v>
+        <v>75.70643221307421</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658782</v>
+        <v>29.3427477865878</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942762</v>
+        <v>7.194100917942757</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650348</v>
+        <v>0.09183958618650341</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31853,10 +31853,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32075,10 +32075,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>300.5543663814929</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356908</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32792,10 +32792,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,7 +33032,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
@@ -33041,7 +33041,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33904,7 +33904,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,28 +34211,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,28 +34448,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>121.2219182534626</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="O3" t="n">
-        <v>263.7138800015061</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.87976539609076</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34872,10 +34872,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.2029511204533</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35033,7 +35033,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705675</v>
+        <v>137.5343130705673</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313392</v>
+        <v>257.3793117313389</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655067</v>
+        <v>356.5763021655062</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087223</v>
+        <v>428.7491718087218</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559177</v>
+        <v>440.3471941559173</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091035</v>
+        <v>402.3374078091031</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430333</v>
+        <v>308.536173343033</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797641</v>
+        <v>183.0384768797638</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234329</v>
+        <v>20.20013907234312</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127616</v>
+        <v>62.90656844127602</v>
       </c>
       <c r="K9" t="n">
-        <v>396.9388283579998</v>
+        <v>450.9268494884367</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772546</v>
+        <v>561.9858418867516</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396991</v>
+        <v>366.7338065396987</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318889</v>
+        <v>390.9943459318886</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074647</v>
+        <v>335.2392020074643</v>
       </c>
       <c r="P9" t="n">
-        <v>567.9934337203665</v>
+        <v>249.530665080429</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.381210660349</v>
+        <v>116.3812106603489</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873334</v>
+        <v>25.68023017873325</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513693</v>
+        <v>173.3488267513691</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093289</v>
+        <v>277.9141240093287</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641535</v>
+        <v>303.5155410641533</v>
       </c>
       <c r="N10" t="n">
-        <v>301.788131425464</v>
+        <v>301.7881314254638</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186655</v>
+        <v>262.5721089186653</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357669</v>
+        <v>200.9175350357667</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228604</v>
+        <v>54.82702814228595</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35501,10 +35501,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096379</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
         <v>394.3420143191314</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>161.9999866016187</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>132.4173135558166</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683806</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,7 +36680,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
